--- a/dataSRhabitats.xlsx
+++ b/dataSRhabitats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KelseyLaymon_1/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56817662-35E8-1749-930C-9AB5DC67DCF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DA54B1-3516-E446-8758-38DCD1A4D55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46720" yWindow="3360" windowWidth="27640" windowHeight="16760" xr2:uid="{9392D724-CF5F-2548-AFDB-D341975E5F24}"/>
+    <workbookView xWindow="-30240" yWindow="2620" windowWidth="27640" windowHeight="16760" xr2:uid="{9392D724-CF5F-2548-AFDB-D341975E5F24}"/>
   </bookViews>
   <sheets>
     <sheet name="bugs" sheetId="1" r:id="rId1"/>
@@ -791,34 +791,13 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Bailey</t>
-  </si>
-  <si>
     <t>Floodplain</t>
   </si>
   <si>
     <t>River</t>
   </si>
   <si>
-    <t>Gum Swamp</t>
-  </si>
-  <si>
-    <t>Satan's slough</t>
-  </si>
-  <si>
-    <t>Little Hell</t>
-  </si>
-  <si>
-    <t>Miller</t>
-  </si>
-  <si>
     <t xml:space="preserve">                      </t>
-  </si>
-  <si>
-    <t>Whirligig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bailey </t>
   </si>
   <si>
     <t>j</t>
@@ -837,6 +816,27 @@
   </si>
   <si>
     <t>Belostoma</t>
+  </si>
+  <si>
+    <t>Site 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site 1 </t>
+  </si>
+  <si>
+    <t>Site 2</t>
+  </si>
+  <si>
+    <t>Site 3</t>
+  </si>
+  <si>
+    <t>Site 5</t>
+  </si>
+  <si>
+    <t>Site 6</t>
+  </si>
+  <si>
+    <t>Site 4</t>
   </si>
 </sst>
 </file>
@@ -958,43 +958,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1332,13 +1329,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4CDDFD-738F-9943-9DF0-382A172AD1F6}">
   <dimension ref="A1:JG148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="6"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="1"/>
     <col min="5" max="5" width="5.1640625" style="1" customWidth="1"/>
@@ -1347,1799 +1344,1805 @@
     <col min="151" max="153" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:267" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E1" s="6"/>
-      <c r="F1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="10" t="s">
+    <row r="1" spans="1:267" x14ac:dyDescent="0.2">
+      <c r="A1"/>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="V1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="X1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Y1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AA1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AB1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AC1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AD1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AE1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AF1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AG1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="AH1" s="13" t="s">
+      <c r="AH1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13" t="s">
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AK1" s="13" t="s">
+      <c r="AK1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AL1" s="13" t="s">
+      <c r="AL1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AM1" s="13" t="s">
+      <c r="AM1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="AN1" s="13" t="s">
+      <c r="AN1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AO1" s="13" t="s">
+      <c r="AO1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="AP1" s="13" t="s">
+      <c r="AP1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AQ1" s="13" t="s">
+      <c r="AQ1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="AR1" s="13" t="s">
+      <c r="AR1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="AS1" s="13" t="s">
+      <c r="AS1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="AT1" s="13" t="s">
+      <c r="AT1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AU1" s="13" t="s">
+      <c r="AU1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AV1" s="13" t="s">
+      <c r="AV1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="AW1" s="13" t="s">
+      <c r="AW1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AX1" s="13" t="s">
+      <c r="AX1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="AY1" s="13" t="s">
+      <c r="AY1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AZ1" s="13" t="s">
+      <c r="AZ1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="BA1" s="13" t="s">
+      <c r="BA1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="BB1" s="10" t="s">
+      <c r="BB1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="BC1" s="13" t="s">
+      <c r="BC1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="BD1" s="10" t="s">
+      <c r="BD1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="BE1" s="10" t="s">
+      <c r="BE1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="BF1" s="10" t="s">
+      <c r="BF1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="BG1" s="10" t="s">
+      <c r="BG1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="BH1" s="10" t="s">
+      <c r="BH1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="BI1" s="13" t="s">
+      <c r="BI1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="BJ1" s="13" t="s">
+      <c r="BJ1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="BK1" s="13" t="s">
+      <c r="BK1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="BL1" s="13" t="s">
+      <c r="BL1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="BM1" s="10" t="s">
+      <c r="BM1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="BN1" s="13" t="s">
+      <c r="BN1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="BO1" s="13" t="s">
+      <c r="BO1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="BP1" s="13" t="s">
+      <c r="BP1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="BQ1" s="13" t="s">
+      <c r="BQ1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="BR1" s="13" t="s">
+      <c r="BR1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="BS1" s="13" t="s">
+      <c r="BS1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="BT1" s="13" t="s">
+      <c r="BT1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="BU1" s="13" t="s">
+      <c r="BU1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="BV1" s="13" t="s">
+      <c r="BV1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="BW1" s="13" t="s">
+      <c r="BW1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="BX1" s="13" t="s">
+      <c r="BX1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="BY1" s="13" t="s">
+      <c r="BY1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="BZ1" s="13" t="s">
+      <c r="BZ1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="CA1" s="13" t="s">
+      <c r="CA1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="CB1" s="10" t="s">
+      <c r="CB1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CC1" s="10" t="s">
+      <c r="CC1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="CD1" s="10" t="s">
+      <c r="CD1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="CE1" s="10"/>
-      <c r="CF1" s="10" t="s">
+      <c r="CE1" s="7"/>
+      <c r="CF1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="CG1" s="10" t="s">
+      <c r="CG1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="CH1" s="10" t="s">
+      <c r="CH1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CI1" s="10" t="s">
+      <c r="CI1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="CJ1" s="10" t="s">
+      <c r="CJ1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="CK1" s="10" t="s">
+      <c r="CK1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="CL1" s="10" t="s">
+      <c r="CL1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="CM1" s="10" t="s">
+      <c r="CM1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="CN1" s="10" t="s">
+      <c r="CN1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="CO1" s="10" t="s">
+      <c r="CO1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="CP1" s="10" t="s">
+      <c r="CP1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="CQ1" s="10" t="s">
+      <c r="CQ1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="CR1" s="10" t="s">
+      <c r="CR1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="CS1" s="10" t="s">
+      <c r="CS1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="CT1" s="13" t="s">
+      <c r="CT1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="CU1" s="13" t="s">
+      <c r="CU1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="CV1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="CW1" s="13" t="s">
+      <c r="CV1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="CW1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="CX1" s="10" t="s">
+      <c r="CX1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="CY1" s="10" t="s">
+      <c r="CY1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="CZ1" s="10" t="s">
+      <c r="CZ1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="DA1" s="10" t="s">
+      <c r="DA1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="DB1" s="10" t="s">
+      <c r="DB1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="DC1" s="10" t="s">
+      <c r="DC1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="DD1" s="10" t="s">
+      <c r="DD1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="DE1" s="10" t="s">
+      <c r="DE1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="DF1" s="10" t="s">
+      <c r="DF1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="DG1" s="10" t="s">
+      <c r="DG1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="DH1" s="13" t="s">
+      <c r="DH1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="DI1" s="13" t="s">
+      <c r="DI1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="DJ1" s="10" t="s">
+      <c r="DJ1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="DK1" s="10" t="s">
+      <c r="DK1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="DL1" s="10" t="s">
+      <c r="DL1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="DM1" s="10"/>
-      <c r="DN1" s="10" t="s">
+      <c r="DM1" s="7"/>
+      <c r="DN1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="DO1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="DP1" s="10" t="s">
+      <c r="DO1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="DP1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="DQ1" s="10" t="s">
+      <c r="DQ1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="DR1" s="10" t="s">
+      <c r="DR1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="DS1" s="10" t="s">
+      <c r="DS1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="DT1" s="10" t="s">
+      <c r="DT1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="DU1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="DV1" s="10" t="s">
+      <c r="DU1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="DV1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="DW1" s="10" t="s">
+      <c r="DW1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="DX1" s="10"/>
-      <c r="DY1" s="10" t="s">
+      <c r="DX1" s="7"/>
+      <c r="DY1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="DZ1" s="10" t="s">
+      <c r="DZ1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="EA1" s="10" t="s">
+      <c r="EA1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="EB1" s="10" t="s">
+      <c r="EB1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="EC1" s="10" t="s">
+      <c r="EC1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="ED1" s="10" t="s">
+      <c r="ED1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="EE1" s="10" t="s">
+      <c r="EE1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="EF1" s="10" t="s">
+      <c r="EF1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="EG1" s="10" t="s">
+      <c r="EG1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="EH1" s="10" t="s">
+      <c r="EH1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="EI1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="EJ1" s="10" t="s">
+      <c r="EI1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="EJ1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="EK1" s="10" t="s">
+      <c r="EK1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="EL1" s="10" t="s">
+      <c r="EL1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="EM1" s="10" t="s">
+      <c r="EM1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="EN1" s="10" t="s">
+      <c r="EN1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="EO1" s="10" t="s">
+      <c r="EO1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="EP1" s="10" t="s">
+      <c r="EP1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="EQ1" s="10" t="s">
+      <c r="EQ1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="ER1" s="10" t="s">
+      <c r="ER1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="ES1" s="10" t="s">
+      <c r="ES1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="ET1" s="10" t="s">
+      <c r="ET1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="EU1" s="10" t="s">
+      <c r="EU1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="EV1" s="10" t="s">
+      <c r="EV1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="EW1" s="10" t="s">
+      <c r="EW1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="EX1" s="10" t="s">
+      <c r="EX1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="EY1" s="10" t="s">
+      <c r="EY1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="EZ1" s="10" t="s">
+      <c r="EZ1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="FA1" s="10" t="s">
+      <c r="FA1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="FB1" s="10" t="s">
+      <c r="FB1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="FC1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="FD1" s="10"/>
-      <c r="FE1" s="10" t="s">
+      <c r="FC1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD1" s="7"/>
+      <c r="FE1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="FF1" s="10" t="s">
+      <c r="FF1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="FG1" s="10" t="s">
+      <c r="FG1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="FH1" s="10" t="s">
+      <c r="FH1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="FI1" s="10" t="s">
+      <c r="FI1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="FJ1" s="10" t="s">
+      <c r="FJ1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="FK1" s="10" t="s">
+      <c r="FK1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="FL1" s="10" t="s">
+      <c r="FL1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="FM1" s="10" t="s">
+      <c r="FM1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="FN1" s="10" t="s">
+      <c r="FN1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="FO1" s="14" t="s">
+      <c r="FO1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="FP1" s="10" t="s">
+      <c r="FP1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="FQ1" s="14" t="s">
+      <c r="FQ1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="FR1" s="14"/>
-      <c r="FS1" s="14" t="s">
+      <c r="FR1" s="11"/>
+      <c r="FS1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="FT1" s="14" t="s">
+      <c r="FT1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="FU1" s="10" t="s">
+      <c r="FU1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="FV1" s="14"/>
-      <c r="FW1" s="14"/>
-      <c r="FX1" s="14"/>
-      <c r="FY1" s="14"/>
-      <c r="FZ1" s="14"/>
-      <c r="GA1" s="14"/>
-      <c r="GB1" s="14"/>
-      <c r="GC1" s="14"/>
-      <c r="GD1" s="14"/>
-      <c r="GE1" s="14"/>
-      <c r="GF1" s="14"/>
-      <c r="GG1" s="14"/>
-      <c r="GH1" s="14"/>
-      <c r="GI1" s="14"/>
-      <c r="GJ1" s="14"/>
-      <c r="GK1" s="14"/>
-      <c r="GL1" s="14"/>
-      <c r="GM1" s="14"/>
-      <c r="GN1" s="14"/>
-      <c r="GO1" s="14"/>
-      <c r="GP1" s="14"/>
-      <c r="GQ1" s="14"/>
-      <c r="GR1" s="14"/>
-      <c r="GS1" s="14"/>
-      <c r="GT1" s="14"/>
-      <c r="GU1" s="14"/>
-      <c r="GV1" s="14"/>
-      <c r="GW1" s="14"/>
-      <c r="GX1" s="14"/>
-      <c r="GY1" s="14"/>
-      <c r="GZ1" s="14"/>
-      <c r="HA1" s="14"/>
-      <c r="HB1" s="14"/>
-      <c r="HC1" s="14"/>
-      <c r="HD1" s="14"/>
-      <c r="HE1" s="14"/>
-      <c r="HF1" s="14"/>
-      <c r="HG1" s="14"/>
-      <c r="HH1" s="14"/>
-      <c r="HI1" s="14"/>
-      <c r="HJ1" s="14"/>
-      <c r="HK1" s="14"/>
-      <c r="HL1" s="14"/>
-      <c r="HM1" s="14"/>
-      <c r="HN1" s="14"/>
-      <c r="HO1" s="14"/>
-      <c r="HP1" s="14"/>
-      <c r="HQ1" s="14"/>
-      <c r="HR1" s="14"/>
-      <c r="HS1" s="14"/>
-      <c r="HT1" s="14"/>
-      <c r="HU1" s="14"/>
-      <c r="HV1" s="14"/>
-      <c r="HW1" s="14"/>
-      <c r="HX1" s="14"/>
-      <c r="HY1" s="14"/>
-      <c r="HZ1" s="14"/>
-      <c r="IA1" s="14"/>
-      <c r="IB1" s="14"/>
-      <c r="IC1" s="14"/>
-      <c r="ID1" s="14"/>
-      <c r="IE1" s="14"/>
-      <c r="IF1" s="14"/>
-      <c r="IG1" s="14"/>
-      <c r="IH1" s="14"/>
-      <c r="II1" s="14"/>
-      <c r="IJ1" s="14"/>
-      <c r="IK1" s="14"/>
-      <c r="IL1" s="14"/>
-      <c r="IM1" s="14"/>
-      <c r="IN1" s="14"/>
-      <c r="IO1" s="14"/>
-      <c r="IP1" s="14"/>
-      <c r="IQ1" s="14"/>
-      <c r="IR1" s="14"/>
-      <c r="IS1" s="14"/>
-      <c r="IT1" s="14"/>
-      <c r="IU1" s="14"/>
-      <c r="IV1" s="14"/>
-      <c r="IW1" s="14"/>
-      <c r="IX1" s="14"/>
-      <c r="IY1" s="14"/>
-      <c r="IZ1" s="14"/>
-      <c r="JA1" s="14"/>
-      <c r="JB1" s="14"/>
-      <c r="JC1" s="14"/>
-      <c r="JD1" s="14"/>
-      <c r="JE1" s="14"/>
-      <c r="JF1" s="14"/>
-      <c r="JG1" s="14"/>
+      <c r="FV1" s="11"/>
+      <c r="FW1" s="11"/>
+      <c r="FX1" s="11"/>
+      <c r="FY1" s="11"/>
+      <c r="FZ1" s="11"/>
+      <c r="GA1" s="11"/>
+      <c r="GB1" s="11"/>
+      <c r="GC1" s="11"/>
+      <c r="GD1" s="11"/>
+      <c r="GE1" s="11"/>
+      <c r="GF1" s="11"/>
+      <c r="GG1" s="11"/>
+      <c r="GH1" s="11"/>
+      <c r="GI1" s="11"/>
+      <c r="GJ1" s="11"/>
+      <c r="GK1" s="11"/>
+      <c r="GL1" s="11"/>
+      <c r="GM1" s="11"/>
+      <c r="GN1" s="11"/>
+      <c r="GO1" s="11"/>
+      <c r="GP1" s="11"/>
+      <c r="GQ1" s="11"/>
+      <c r="GR1" s="11"/>
+      <c r="GS1" s="11"/>
+      <c r="GT1" s="11"/>
+      <c r="GU1" s="11"/>
+      <c r="GV1" s="11"/>
+      <c r="GW1" s="11"/>
+      <c r="GX1" s="11"/>
+      <c r="GY1" s="11"/>
+      <c r="GZ1" s="11"/>
+      <c r="HA1" s="11"/>
+      <c r="HB1" s="11"/>
+      <c r="HC1" s="11"/>
+      <c r="HD1" s="11"/>
+      <c r="HE1" s="11"/>
+      <c r="HF1" s="11"/>
+      <c r="HG1" s="11"/>
+      <c r="HH1" s="11"/>
+      <c r="HI1" s="11"/>
+      <c r="HJ1" s="11"/>
+      <c r="HK1" s="11"/>
+      <c r="HL1" s="11"/>
+      <c r="HM1" s="11"/>
+      <c r="HN1" s="11"/>
+      <c r="HO1" s="11"/>
+      <c r="HP1" s="11"/>
+      <c r="HQ1" s="11"/>
+      <c r="HR1" s="11"/>
+      <c r="HS1" s="11"/>
+      <c r="HT1" s="11"/>
+      <c r="HU1" s="11"/>
+      <c r="HV1" s="11"/>
+      <c r="HW1" s="11"/>
+      <c r="HX1" s="11"/>
+      <c r="HY1" s="11"/>
+      <c r="HZ1" s="11"/>
+      <c r="IA1" s="11"/>
+      <c r="IB1" s="11"/>
+      <c r="IC1" s="11"/>
+      <c r="ID1" s="11"/>
+      <c r="IE1" s="11"/>
+      <c r="IF1" s="11"/>
+      <c r="IG1" s="11"/>
+      <c r="IH1" s="11"/>
+      <c r="II1" s="11"/>
+      <c r="IJ1" s="11"/>
+      <c r="IK1" s="11"/>
+      <c r="IL1" s="11"/>
+      <c r="IM1" s="11"/>
+      <c r="IN1" s="11"/>
+      <c r="IO1" s="11"/>
+      <c r="IP1" s="11"/>
+      <c r="IQ1" s="11"/>
+      <c r="IR1" s="11"/>
+      <c r="IS1" s="11"/>
+      <c r="IT1" s="11"/>
+      <c r="IU1" s="11"/>
+      <c r="IV1" s="11"/>
+      <c r="IW1" s="11"/>
+      <c r="IX1" s="11"/>
+      <c r="IY1" s="11"/>
+      <c r="IZ1" s="11"/>
+      <c r="JA1" s="11"/>
+      <c r="JB1" s="11"/>
+      <c r="JC1" s="11"/>
+      <c r="JD1" s="11"/>
+      <c r="JE1" s="11"/>
+      <c r="JF1" s="11"/>
+      <c r="JG1" s="11"/>
     </row>
-    <row r="2" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F2" s="5" t="s">
+    <row r="2" spans="1:267" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16" t="s">
+      <c r="K2" s="13"/>
+      <c r="L2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="S2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="17"/>
-      <c r="U2" s="18" t="s">
+      <c r="T2" s="14"/>
+      <c r="U2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="19" t="s">
+      <c r="V2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="W2" s="17" t="s">
+      <c r="W2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X2" s="19" t="s">
+      <c r="X2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y2" s="19" t="s">
+      <c r="Y2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="Z2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" s="16" t="s">
+      <c r="AA2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AB2" s="16" t="s">
+      <c r="AB2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AC2" s="16" t="s">
+      <c r="AC2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AD2" s="15" t="s">
+      <c r="AD2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AE2" s="19" t="s">
+      <c r="AE2" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="15" t="s">
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AH2" s="15" t="s">
+      <c r="AH2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="11" t="s">
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="15" t="s">
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AM2" s="15" t="s">
+      <c r="AM2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AN2" s="15" t="s">
+      <c r="AN2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AO2" s="19" t="s">
+      <c r="AO2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AP2" s="19" t="s">
+      <c r="AP2" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="19" t="s">
+      <c r="AQ2" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AR2" s="15" t="s">
+      <c r="AR2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AS2" s="19" t="s">
+      <c r="AS2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="AT2" s="19" t="s">
+      <c r="AT2" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="AU2" s="15" t="s">
+      <c r="AU2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="AV2" s="15" t="s">
+      <c r="AV2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AW2" s="15" t="s">
+      <c r="AW2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AX2" s="11" t="s">
+      <c r="AX2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AY2" s="19" t="s">
+      <c r="AY2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="AZ2" s="19" t="s">
+      <c r="AZ2" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="BA2" s="15" t="s">
+      <c r="BA2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="BB2" s="15" t="s">
+      <c r="BB2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="BC2" s="19" t="s">
+      <c r="BC2" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="BD2" s="16" t="s">
+      <c r="BD2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="BE2" s="16" t="s">
+      <c r="BE2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="BF2" s="16" t="s">
+      <c r="BF2" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="BG2" s="16" t="s">
+      <c r="BG2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="BH2" s="16" t="s">
+      <c r="BH2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="BI2" s="16" t="s">
+      <c r="BI2" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="BJ2" s="11" t="s">
+      <c r="BJ2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="BK2" s="11" t="s">
+      <c r="BK2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="BL2" s="16" t="s">
+      <c r="BL2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="BM2" s="10" t="s">
+      <c r="BM2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="BN2" s="16" t="s">
+      <c r="BN2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="BO2" s="16" t="s">
+      <c r="BO2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="BP2" s="16" t="s">
+      <c r="BP2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="BQ2" s="16"/>
-      <c r="BR2" s="16" t="s">
+      <c r="BQ2" s="13"/>
+      <c r="BR2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="BS2" s="16" t="s">
+      <c r="BS2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="BT2" s="16" t="s">
+      <c r="BT2" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="BU2" s="16" t="s">
+      <c r="BU2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="BV2" s="16" t="s">
+      <c r="BV2" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="BW2" s="16" t="s">
+      <c r="BW2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="BX2" s="16" t="s">
+      <c r="BX2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="BY2" s="19" t="s">
+      <c r="BY2" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="BZ2" s="11" t="s">
+      <c r="BZ2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="CA2" s="19" t="s">
+      <c r="CA2" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="CB2" s="16" t="s">
+      <c r="CB2" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="CC2" s="15" t="s">
+      <c r="CC2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="CD2" s="16" t="s">
+      <c r="CD2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="CE2" s="15" t="s">
+      <c r="CE2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="CF2" s="16" t="s">
+      <c r="CF2" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="CG2" s="15" t="s">
+      <c r="CG2" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="CH2" s="16" t="s">
+      <c r="CH2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="CI2" s="16" t="s">
+      <c r="CI2" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="CJ2" s="16"/>
-      <c r="CK2" s="16" t="s">
+      <c r="CJ2" s="13"/>
+      <c r="CK2" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="CL2" s="16" t="s">
+      <c r="CL2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="CM2" s="16" t="s">
+      <c r="CM2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="CN2" s="16"/>
-      <c r="CO2" s="16" t="s">
+      <c r="CN2" s="13"/>
+      <c r="CO2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="CP2" s="16" t="s">
+      <c r="CP2" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="CQ2" s="16" t="s">
+      <c r="CQ2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="CR2" s="16" t="s">
+      <c r="CR2" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="CS2" s="16" t="s">
+      <c r="CS2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="CT2" s="16" t="s">
+      <c r="CT2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="CU2" s="16" t="s">
+      <c r="CU2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="CV2" s="15" t="s">
+      <c r="CV2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="CW2" s="15" t="s">
+      <c r="CW2" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="CX2" s="16" t="s">
+      <c r="CX2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="CY2" s="15" t="s">
+      <c r="CY2" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="CZ2" s="18" t="s">
+      <c r="CZ2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="DA2" s="16" t="s">
+      <c r="DA2" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="DB2" s="11" t="s">
+      <c r="DB2" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="DC2" s="11" t="s">
+      <c r="DC2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="DD2" s="16" t="s">
+      <c r="DD2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="DE2" s="16"/>
-      <c r="DF2" s="16" t="s">
+      <c r="DE2" s="13"/>
+      <c r="DF2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="DG2" s="15" t="s">
+      <c r="DG2" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="DH2" s="19"/>
-      <c r="DI2" s="15" t="s">
+      <c r="DH2" s="16"/>
+      <c r="DI2" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="DJ2" s="16"/>
-      <c r="DK2" s="16" t="s">
+      <c r="DJ2" s="13"/>
+      <c r="DK2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="DL2" s="15" t="s">
+      <c r="DL2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="DM2" s="15" t="s">
+      <c r="DM2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="DN2" s="15" t="s">
+      <c r="DN2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="DO2" s="15" t="s">
+      <c r="DO2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="DP2" s="16" t="s">
+      <c r="DP2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="DQ2" s="16" t="s">
+      <c r="DQ2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="DR2" s="15" t="s">
+      <c r="DR2" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="DS2" s="15" t="s">
+      <c r="DS2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="DT2" s="15" t="s">
+      <c r="DT2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="DU2" s="16" t="s">
+      <c r="DU2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="DV2" s="15" t="s">
+      <c r="DV2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="DW2" s="15" t="s">
+      <c r="DW2" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="DX2" s="16" t="s">
+      <c r="DX2" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="DY2" s="16" t="s">
+      <c r="DY2" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="DZ2" s="15" t="s">
+      <c r="DZ2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="EA2" s="16" t="s">
+      <c r="EA2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="EB2" s="16" t="s">
+      <c r="EB2" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="EC2" s="16" t="s">
+      <c r="EC2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="ED2" s="16" t="s">
+      <c r="ED2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="EE2" s="10" t="s">
+      <c r="EE2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="EF2" s="16" t="s">
+      <c r="EF2" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="EG2" s="15" t="s">
+      <c r="EG2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="EH2" s="11" t="s">
+      <c r="EH2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="EI2" s="16" t="s">
+      <c r="EI2" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="EJ2" s="20" t="s">
+      <c r="EJ2" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="EK2" s="15" t="s">
+      <c r="EK2" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="EL2" s="16" t="s">
+      <c r="EL2" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="EM2" s="16" t="s">
+      <c r="EM2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="EN2" s="16" t="s">
+      <c r="EN2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="EO2" s="16" t="s">
+      <c r="EO2" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="EP2" s="15" t="s">
+      <c r="EP2" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="EQ2" s="16" t="s">
+      <c r="EQ2" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="ER2" s="15" t="s">
+      <c r="ER2" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="ES2" s="15" t="s">
+      <c r="ES2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="ET2" s="15" t="s">
+      <c r="ET2" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="EU2" s="16" t="s">
+      <c r="EU2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="EV2" s="16" t="s">
+      <c r="EV2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="EW2" s="16" t="s">
+      <c r="EW2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="EX2" s="15" t="s">
+      <c r="EX2" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="EY2" s="15" t="s">
+      <c r="EY2" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="EZ2" s="15" t="s">
+      <c r="EZ2" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="FA2" s="16" t="s">
+      <c r="FA2" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="FB2" s="16" t="s">
+      <c r="FB2" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="FC2" s="15" t="s">
+      <c r="FC2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="FD2" s="15"/>
-      <c r="FE2" s="16" t="s">
+      <c r="FD2" s="12"/>
+      <c r="FE2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="FF2" s="15" t="s">
+      <c r="FF2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="FG2" s="15" t="s">
+      <c r="FG2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="FH2" s="16" t="s">
+      <c r="FH2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="FI2" s="15" t="s">
+      <c r="FI2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="FJ2" s="15" t="s">
+      <c r="FJ2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="FK2" s="16" t="s">
+      <c r="FK2" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="FL2" s="16" t="s">
+      <c r="FL2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="FM2" s="18" t="s">
+      <c r="FM2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="FN2" s="15" t="s">
+      <c r="FN2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="FO2" s="16" t="s">
+      <c r="FO2" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="FP2" s="16"/>
-      <c r="FQ2" s="16" t="s">
+      <c r="FP2" s="13"/>
+      <c r="FQ2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="FR2" s="16" t="s">
+      <c r="FR2" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="FS2" s="16" t="s">
+      <c r="FS2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="FT2" s="15" t="s">
+      <c r="FT2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="FU2" s="16" t="s">
+      <c r="FU2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="FV2" s="19"/>
-      <c r="FW2" s="19"/>
-      <c r="FX2" s="19"/>
-      <c r="FY2" s="19"/>
-      <c r="FZ2" s="19"/>
-      <c r="GA2" s="19"/>
-      <c r="GB2" s="21"/>
-      <c r="GC2" s="19"/>
-      <c r="GD2" s="19"/>
-      <c r="GE2" s="19"/>
-      <c r="GF2" s="22"/>
-      <c r="GG2" s="22"/>
-      <c r="GH2" s="22"/>
-      <c r="GI2" s="22"/>
-      <c r="GJ2" s="22"/>
-      <c r="GK2" s="22"/>
-      <c r="GL2" s="22"/>
-      <c r="GM2" s="22"/>
-      <c r="GN2" s="22"/>
-      <c r="GO2" s="22"/>
-      <c r="GP2" s="22"/>
-      <c r="GQ2" s="22"/>
-      <c r="GR2" s="22"/>
-      <c r="GS2" s="22"/>
-      <c r="GT2" s="22"/>
-      <c r="GU2" s="22"/>
-      <c r="GV2" s="22"/>
-      <c r="GW2" s="22"/>
-      <c r="GX2" s="22"/>
-      <c r="GY2" s="22"/>
-      <c r="GZ2" s="22"/>
-      <c r="HA2" s="22"/>
-      <c r="HB2" s="22"/>
-      <c r="HC2" s="22"/>
-      <c r="HD2" s="22"/>
-      <c r="HE2" s="22"/>
-      <c r="HF2" s="22"/>
-      <c r="HG2" s="22"/>
-      <c r="HH2" s="22"/>
-      <c r="HI2" s="22"/>
-      <c r="HJ2" s="22"/>
-      <c r="HK2" s="22"/>
-      <c r="HL2" s="22"/>
-      <c r="HM2" s="22"/>
-      <c r="HN2" s="22"/>
-      <c r="HO2" s="22"/>
-      <c r="HP2" s="22"/>
-      <c r="HQ2" s="22"/>
-      <c r="HR2" s="22"/>
-      <c r="HS2" s="22"/>
-      <c r="HT2" s="22"/>
-      <c r="HU2" s="22"/>
-      <c r="HV2" s="22"/>
-      <c r="HW2" s="22"/>
-      <c r="HX2" s="22"/>
-      <c r="HY2" s="22"/>
-      <c r="HZ2" s="22"/>
-      <c r="IA2" s="22"/>
-      <c r="IB2" s="22"/>
-      <c r="IC2" s="22"/>
-      <c r="ID2" s="22"/>
-      <c r="IE2" s="22"/>
-      <c r="IF2" s="22"/>
-      <c r="IG2" s="22"/>
-      <c r="IH2" s="22"/>
-      <c r="II2" s="22"/>
-      <c r="IJ2" s="22"/>
-      <c r="IK2" s="22"/>
-      <c r="IL2" s="22"/>
-      <c r="IM2" s="22"/>
-      <c r="IN2" s="22"/>
-      <c r="IO2" s="22"/>
-      <c r="IP2" s="22"/>
-      <c r="IQ2" s="22"/>
-      <c r="IR2" s="22"/>
-      <c r="IS2" s="22"/>
-      <c r="IT2" s="22"/>
-      <c r="IU2" s="22"/>
-      <c r="IV2" s="22"/>
-      <c r="IW2" s="22"/>
-      <c r="IX2" s="22"/>
-      <c r="IY2" s="22"/>
-      <c r="IZ2" s="22"/>
-      <c r="JA2" s="22"/>
-      <c r="JB2" s="22"/>
-      <c r="JC2" s="22"/>
-      <c r="JD2" s="22"/>
-      <c r="JE2" s="22"/>
-      <c r="JF2" s="22"/>
-      <c r="JG2" s="22"/>
+      <c r="FV2" s="16"/>
+      <c r="FW2" s="16"/>
+      <c r="FX2" s="16"/>
+      <c r="FY2" s="16"/>
+      <c r="FZ2" s="16"/>
+      <c r="GA2" s="16"/>
+      <c r="GB2" s="18"/>
+      <c r="GC2" s="16"/>
+      <c r="GD2" s="16"/>
+      <c r="GE2" s="16"/>
+      <c r="GF2" s="19"/>
+      <c r="GG2" s="19"/>
+      <c r="GH2" s="19"/>
+      <c r="GI2" s="19"/>
+      <c r="GJ2" s="19"/>
+      <c r="GK2" s="19"/>
+      <c r="GL2" s="19"/>
+      <c r="GM2" s="19"/>
+      <c r="GN2" s="19"/>
+      <c r="GO2" s="19"/>
+      <c r="GP2" s="19"/>
+      <c r="GQ2" s="19"/>
+      <c r="GR2" s="19"/>
+      <c r="GS2" s="19"/>
+      <c r="GT2" s="19"/>
+      <c r="GU2" s="19"/>
+      <c r="GV2" s="19"/>
+      <c r="GW2" s="19"/>
+      <c r="GX2" s="19"/>
+      <c r="GY2" s="19"/>
+      <c r="GZ2" s="19"/>
+      <c r="HA2" s="19"/>
+      <c r="HB2" s="19"/>
+      <c r="HC2" s="19"/>
+      <c r="HD2" s="19"/>
+      <c r="HE2" s="19"/>
+      <c r="HF2" s="19"/>
+      <c r="HG2" s="19"/>
+      <c r="HH2" s="19"/>
+      <c r="HI2" s="19"/>
+      <c r="HJ2" s="19"/>
+      <c r="HK2" s="19"/>
+      <c r="HL2" s="19"/>
+      <c r="HM2" s="19"/>
+      <c r="HN2" s="19"/>
+      <c r="HO2" s="19"/>
+      <c r="HP2" s="19"/>
+      <c r="HQ2" s="19"/>
+      <c r="HR2" s="19"/>
+      <c r="HS2" s="19"/>
+      <c r="HT2" s="19"/>
+      <c r="HU2" s="19"/>
+      <c r="HV2" s="19"/>
+      <c r="HW2" s="19"/>
+      <c r="HX2" s="19"/>
+      <c r="HY2" s="19"/>
+      <c r="HZ2" s="19"/>
+      <c r="IA2" s="19"/>
+      <c r="IB2" s="19"/>
+      <c r="IC2" s="19"/>
+      <c r="ID2" s="19"/>
+      <c r="IE2" s="19"/>
+      <c r="IF2" s="19"/>
+      <c r="IG2" s="19"/>
+      <c r="IH2" s="19"/>
+      <c r="II2" s="19"/>
+      <c r="IJ2" s="19"/>
+      <c r="IK2" s="19"/>
+      <c r="IL2" s="19"/>
+      <c r="IM2" s="19"/>
+      <c r="IN2" s="19"/>
+      <c r="IO2" s="19"/>
+      <c r="IP2" s="19"/>
+      <c r="IQ2" s="19"/>
+      <c r="IR2" s="19"/>
+      <c r="IS2" s="19"/>
+      <c r="IT2" s="19"/>
+      <c r="IU2" s="19"/>
+      <c r="IV2" s="19"/>
+      <c r="IW2" s="19"/>
+      <c r="IX2" s="19"/>
+      <c r="IY2" s="19"/>
+      <c r="IZ2" s="19"/>
+      <c r="JA2" s="19"/>
+      <c r="JB2" s="19"/>
+      <c r="JC2" s="19"/>
+      <c r="JD2" s="19"/>
+      <c r="JE2" s="19"/>
+      <c r="JF2" s="19"/>
+      <c r="JG2" s="19"/>
     </row>
-    <row r="3" spans="1:267" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E3" s="6"/>
-      <c r="F3" s="4" t="s">
+    <row r="3" spans="1:267" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="F3" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" t="s">
         <v>97</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="J3" s="11" t="s">
+      <c r="I3" t="s">
+        <v>259</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="S3" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="T3" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="U3" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="V3" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="W3" s="10" t="s">
+      <c r="W3" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="X3" s="11" t="s">
+      <c r="X3" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="Y3" s="11" t="s">
+      <c r="Y3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Z3" s="11" t="s">
+      <c r="Z3" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="AA3" s="11" t="s">
+      <c r="AA3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AB3" s="11" t="s">
+      <c r="AB3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AC3" s="11" t="s">
+      <c r="AC3" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="AD3" s="11" t="s">
+      <c r="AD3" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="AE3" s="11" t="s">
+      <c r="AE3" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="AF3" s="13" t="s">
+      <c r="AF3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AG3" s="11" t="s">
+      <c r="AG3" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="AH3" s="11" t="s">
+      <c r="AH3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AI3" s="13" t="s">
+      <c r="AI3" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="AJ3" s="13" t="s">
+      <c r="AJ3" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="AK3" s="13" t="s">
+      <c r="AK3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AL3" s="11" t="s">
+      <c r="AL3" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="AM3" s="11" t="s">
+      <c r="AM3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AN3" s="11" t="s">
+      <c r="AN3" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="AO3" s="10" t="s">
+      <c r="AO3" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="AP3" s="11" t="s">
+      <c r="AP3" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="AQ3" s="10" t="s">
+      <c r="AQ3" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="AR3" s="11" t="s">
+      <c r="AR3" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="AS3" s="13" t="s">
+      <c r="AS3" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="AT3" s="10" t="s">
+      <c r="AT3" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="AU3" s="10" t="s">
+      <c r="AU3" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="AV3" s="11" t="s">
+      <c r="AV3" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="AW3" s="11" t="s">
+      <c r="AW3" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="AX3" s="11" t="s">
+      <c r="AX3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AY3" s="11" t="s">
+      <c r="AY3" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="AZ3" s="13" t="s">
+      <c r="AZ3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="BA3" s="11" t="s">
+      <c r="BA3" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="BB3" s="11" t="s">
+      <c r="BB3" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="BC3" s="11" t="s">
+      <c r="BC3" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="BD3" s="11" t="s">
+      <c r="BD3" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="BE3" s="11" t="s">
+      <c r="BE3" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="BF3" s="11" t="s">
+      <c r="BF3" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="BG3" s="11" t="s">
+      <c r="BG3" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="BH3" s="11" t="s">
+      <c r="BH3" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="BI3" s="10" t="s">
+      <c r="BI3" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="BJ3" s="10" t="s">
+      <c r="BJ3" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="BK3" s="11" t="s">
+      <c r="BK3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="BL3" s="11" t="s">
+      <c r="BL3" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="BM3" s="11" t="s">
+      <c r="BM3" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="BN3" s="11" t="s">
+      <c r="BN3" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="BO3" s="11" t="s">
+      <c r="BO3" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="BP3" s="11" t="s">
+      <c r="BP3" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="BQ3" s="10" t="s">
+      <c r="BQ3" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="BR3" s="10" t="s">
+      <c r="BR3" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="BS3" s="11" t="s">
+      <c r="BS3" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="BT3" s="23" t="s">
+      <c r="BT3" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="BU3" s="11" t="s">
+      <c r="BU3" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="BV3" s="10" t="s">
+      <c r="BV3" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="BW3" s="11" t="s">
+      <c r="BW3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="BX3" s="11" t="s">
+      <c r="BX3" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="BY3" s="11" t="s">
+      <c r="BY3" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="BZ3" s="11" t="s">
+      <c r="BZ3" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="CA3" s="11" t="s">
+      <c r="CA3" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="CB3" s="10" t="s">
+      <c r="CB3" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="CC3" s="11" t="s">
+      <c r="CC3" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="CD3" s="10" t="s">
+      <c r="CD3" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="CE3" s="10" t="s">
+      <c r="CE3" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="CF3" s="10" t="s">
+      <c r="CF3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="CG3" s="11" t="s">
+      <c r="CG3" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="CH3" s="11" t="s">
+      <c r="CH3" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="CI3" s="11" t="s">
+      <c r="CI3" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="CJ3" s="11" t="s">
+      <c r="CJ3" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="CK3" s="11" t="s">
+      <c r="CK3" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="CL3" s="11" t="s">
+      <c r="CL3" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="CM3" s="11" t="s">
+      <c r="CM3" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="CN3" s="11" t="s">
+      <c r="CN3" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="CO3" s="11" t="s">
+      <c r="CO3" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="CP3" s="11" t="s">
+      <c r="CP3" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="CQ3" s="11" t="s">
+      <c r="CQ3" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="CR3" s="11" t="s">
+      <c r="CR3" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="CS3" s="10" t="s">
+      <c r="CS3" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="CT3" s="24" t="s">
+      <c r="CT3" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="CU3" s="11" t="s">
+      <c r="CU3" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="CV3" s="11" t="s">
+      <c r="CV3" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="CW3" s="11" t="s">
+      <c r="CW3" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="CX3" s="10" t="s">
+      <c r="CX3" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="CY3" s="11" t="s">
+      <c r="CY3" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="CZ3" s="11" t="s">
+      <c r="CZ3" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="DA3" s="11" t="s">
+      <c r="DA3" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="DB3" s="11" t="s">
+      <c r="DB3" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="DC3" s="11" t="s">
+      <c r="DC3" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="DD3" s="11" t="s">
+      <c r="DD3" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="DE3" s="24" t="s">
+      <c r="DE3" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="DF3" s="10" t="s">
+      <c r="DF3" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="DG3" s="11" t="s">
+      <c r="DG3" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="DH3" s="24" t="s">
+      <c r="DH3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="DI3" s="24" t="s">
+      <c r="DI3" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="DJ3" s="10" t="s">
+      <c r="DJ3" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="DK3" s="10" t="s">
+      <c r="DK3" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="DL3" s="11" t="s">
+      <c r="DL3" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="DM3" s="11" t="s">
+      <c r="DM3" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="DN3" s="11" t="s">
+      <c r="DN3" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="DO3" s="11" t="s">
+      <c r="DO3" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="DP3" s="11" t="s">
+      <c r="DP3" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="DQ3" s="11" t="s">
+      <c r="DQ3" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="DR3" s="11" t="s">
+      <c r="DR3" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="DS3" s="11" t="s">
+      <c r="DS3" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="DT3" s="11" t="s">
+      <c r="DT3" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="DU3" s="10" t="s">
+      <c r="DU3" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="DV3" s="11" t="s">
+      <c r="DV3" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="DW3" s="11" t="s">
+      <c r="DW3" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="DX3" s="10" t="s">
+      <c r="DX3" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="DY3" s="13" t="s">
+      <c r="DY3" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="DZ3" s="13" t="s">
+      <c r="DZ3" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="EA3" s="10" t="s">
+      <c r="EA3" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="EB3" s="10" t="s">
+      <c r="EB3" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="EC3" s="10" t="s">
+      <c r="EC3" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="ED3" s="11" t="s">
+      <c r="ED3" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="EE3" s="11" t="s">
+      <c r="EE3" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="EF3" s="11" t="s">
+      <c r="EF3" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="EG3" s="11" t="s">
+      <c r="EG3" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="EH3" s="11" t="s">
+      <c r="EH3" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="EI3" s="11" t="s">
+      <c r="EI3" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="EJ3" s="11" t="s">
+      <c r="EJ3" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="EK3" s="11" t="s">
+      <c r="EK3" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="EL3" s="11" t="s">
+      <c r="EL3" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="EM3" s="11" t="s">
+      <c r="EM3" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="EN3" s="11" t="s">
+      <c r="EN3" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="EO3" s="11" t="s">
+      <c r="EO3" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="EP3" s="11" t="s">
+      <c r="EP3" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="EQ3" s="11" t="s">
+      <c r="EQ3" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="ER3" s="11" t="s">
+      <c r="ER3" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="ES3" s="11" t="s">
+      <c r="ES3" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="ET3" s="11" t="s">
+      <c r="ET3" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="EU3" s="11" t="s">
+      <c r="EU3" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="EV3" s="10" t="s">
+      <c r="EV3" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="EW3" s="11" t="s">
+      <c r="EW3" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="EX3" s="11" t="s">
+      <c r="EX3" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="EY3" s="11" t="s">
+      <c r="EY3" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="EZ3" s="11" t="s">
+      <c r="EZ3" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="FA3" s="11" t="s">
+      <c r="FA3" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="FB3" s="11" t="s">
+      <c r="FB3" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="FC3" s="11" t="s">
+      <c r="FC3" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="FD3" s="11" t="s">
+      <c r="FD3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="FE3" s="10" t="s">
+      <c r="FE3" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="FF3" s="11" t="s">
+      <c r="FF3" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="FG3" s="10" t="s">
+      <c r="FG3" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="FH3" s="10" t="s">
+      <c r="FH3" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="FI3" s="11" t="s">
+      <c r="FI3" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="FJ3" s="11" t="s">
+      <c r="FJ3" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="FK3" s="11" t="s">
+      <c r="FK3" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="FL3" s="11" t="s">
+      <c r="FL3" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="FM3" s="11" t="s">
+      <c r="FM3" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="FN3" s="11" t="s">
+      <c r="FN3" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="FO3" s="14" t="s">
+      <c r="FO3" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="FP3" s="10" t="s">
+      <c r="FP3" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="FQ3" s="11" t="s">
+      <c r="FQ3" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="FR3" s="11" t="s">
+      <c r="FR3" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="FS3" s="11" t="s">
+      <c r="FS3" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="FT3" s="11" t="s">
+      <c r="FT3" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="FU3" s="10" t="s">
+      <c r="FU3" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="FV3" s="25"/>
-      <c r="FW3" s="25"/>
-      <c r="FX3" s="25"/>
-      <c r="FY3" s="25"/>
-      <c r="FZ3" s="25"/>
-      <c r="GA3" s="25"/>
-      <c r="GB3" s="25"/>
-      <c r="GC3" s="25"/>
-      <c r="GD3" s="25"/>
-      <c r="GE3" s="25"/>
-      <c r="GF3" s="25"/>
-      <c r="GG3" s="25"/>
-      <c r="GH3" s="25"/>
-      <c r="GI3" s="25"/>
-      <c r="GJ3" s="25"/>
-      <c r="GK3" s="25"/>
-      <c r="GL3" s="25"/>
-      <c r="GM3" s="25"/>
-      <c r="GN3" s="25"/>
-      <c r="GO3" s="25"/>
-      <c r="GP3" s="25"/>
-      <c r="GQ3" s="25"/>
-      <c r="GR3" s="25"/>
-      <c r="GS3" s="25"/>
-      <c r="GT3" s="25"/>
-      <c r="GU3" s="25"/>
-      <c r="GV3" s="25"/>
-      <c r="GW3" s="25"/>
-      <c r="GX3" s="25"/>
-      <c r="GY3" s="25"/>
-      <c r="GZ3" s="25"/>
-      <c r="HA3" s="25"/>
-      <c r="HB3" s="25"/>
-      <c r="HC3" s="25"/>
-      <c r="HD3" s="25"/>
-      <c r="HE3" s="25"/>
-      <c r="HF3" s="25"/>
-      <c r="HG3" s="25"/>
-      <c r="HH3" s="25"/>
-      <c r="HI3" s="25"/>
-      <c r="HJ3" s="25"/>
-      <c r="HK3" s="25"/>
-      <c r="HL3" s="25"/>
-      <c r="HM3" s="25"/>
-      <c r="HN3" s="25"/>
-      <c r="HO3" s="25"/>
-      <c r="HP3" s="25"/>
-      <c r="HQ3" s="25"/>
-      <c r="HR3" s="25"/>
-      <c r="HS3" s="25"/>
-      <c r="HT3" s="25"/>
-      <c r="HU3" s="25"/>
-      <c r="HV3" s="25"/>
-      <c r="HW3" s="25"/>
-      <c r="HX3" s="25"/>
-      <c r="HY3" s="25"/>
-      <c r="HZ3" s="25"/>
-      <c r="IA3" s="25"/>
-      <c r="IB3" s="25"/>
-      <c r="IC3" s="25"/>
-      <c r="ID3" s="25"/>
-      <c r="IE3" s="25"/>
-      <c r="IF3" s="25"/>
-      <c r="IG3" s="25"/>
-      <c r="IH3" s="25"/>
-      <c r="II3" s="25"/>
-      <c r="IJ3" s="25"/>
-      <c r="IK3" s="25"/>
-      <c r="IL3" s="25"/>
-      <c r="IM3" s="25"/>
-      <c r="IN3" s="25"/>
-      <c r="IO3" s="25"/>
-      <c r="IP3" s="25"/>
-      <c r="IQ3" s="25"/>
-      <c r="IR3" s="25"/>
-      <c r="IS3" s="25"/>
-      <c r="IT3" s="25"/>
-      <c r="IU3" s="25"/>
-      <c r="IV3" s="25"/>
-      <c r="IW3" s="25"/>
-      <c r="IX3" s="25"/>
-      <c r="IY3" s="25"/>
-      <c r="IZ3" s="25"/>
-      <c r="JA3" s="25"/>
-      <c r="JB3" s="25"/>
-      <c r="JC3" s="25"/>
-      <c r="JD3" s="25"/>
-      <c r="JE3" s="25"/>
-      <c r="JF3" s="25"/>
-      <c r="JG3" s="25"/>
+      <c r="FV3" s="22"/>
+      <c r="FW3" s="22"/>
+      <c r="FX3" s="22"/>
+      <c r="FY3" s="22"/>
+      <c r="FZ3" s="22"/>
+      <c r="GA3" s="22"/>
+      <c r="GB3" s="22"/>
+      <c r="GC3" s="22"/>
+      <c r="GD3" s="22"/>
+      <c r="GE3" s="22"/>
+      <c r="GF3" s="22"/>
+      <c r="GG3" s="22"/>
+      <c r="GH3" s="22"/>
+      <c r="GI3" s="22"/>
+      <c r="GJ3" s="22"/>
+      <c r="GK3" s="22"/>
+      <c r="GL3" s="22"/>
+      <c r="GM3" s="22"/>
+      <c r="GN3" s="22"/>
+      <c r="GO3" s="22"/>
+      <c r="GP3" s="22"/>
+      <c r="GQ3" s="22"/>
+      <c r="GR3" s="22"/>
+      <c r="GS3" s="22"/>
+      <c r="GT3" s="22"/>
+      <c r="GU3" s="22"/>
+      <c r="GV3" s="22"/>
+      <c r="GW3" s="22"/>
+      <c r="GX3" s="22"/>
+      <c r="GY3" s="22"/>
+      <c r="GZ3" s="22"/>
+      <c r="HA3" s="22"/>
+      <c r="HB3" s="22"/>
+      <c r="HC3" s="22"/>
+      <c r="HD3" s="22"/>
+      <c r="HE3" s="22"/>
+      <c r="HF3" s="22"/>
+      <c r="HG3" s="22"/>
+      <c r="HH3" s="22"/>
+      <c r="HI3" s="22"/>
+      <c r="HJ3" s="22"/>
+      <c r="HK3" s="22"/>
+      <c r="HL3" s="22"/>
+      <c r="HM3" s="22"/>
+      <c r="HN3" s="22"/>
+      <c r="HO3" s="22"/>
+      <c r="HP3" s="22"/>
+      <c r="HQ3" s="22"/>
+      <c r="HR3" s="22"/>
+      <c r="HS3" s="22"/>
+      <c r="HT3" s="22"/>
+      <c r="HU3" s="22"/>
+      <c r="HV3" s="22"/>
+      <c r="HW3" s="22"/>
+      <c r="HX3" s="22"/>
+      <c r="HY3" s="22"/>
+      <c r="HZ3" s="22"/>
+      <c r="IA3" s="22"/>
+      <c r="IB3" s="22"/>
+      <c r="IC3" s="22"/>
+      <c r="ID3" s="22"/>
+      <c r="IE3" s="22"/>
+      <c r="IF3" s="22"/>
+      <c r="IG3" s="22"/>
+      <c r="IH3" s="22"/>
+      <c r="II3" s="22"/>
+      <c r="IJ3" s="22"/>
+      <c r="IK3" s="22"/>
+      <c r="IL3" s="22"/>
+      <c r="IM3" s="22"/>
+      <c r="IN3" s="22"/>
+      <c r="IO3" s="22"/>
+      <c r="IP3" s="22"/>
+      <c r="IQ3" s="22"/>
+      <c r="IR3" s="22"/>
+      <c r="IS3" s="22"/>
+      <c r="IT3" s="22"/>
+      <c r="IU3" s="22"/>
+      <c r="IV3" s="22"/>
+      <c r="IW3" s="22"/>
+      <c r="IX3" s="22"/>
+      <c r="IY3" s="22"/>
+      <c r="IZ3" s="22"/>
+      <c r="JA3" s="22"/>
+      <c r="JB3" s="22"/>
+      <c r="JC3" s="22"/>
+      <c r="JD3" s="22"/>
+      <c r="JE3" s="22"/>
+      <c r="JF3" s="22"/>
+      <c r="JG3" s="22"/>
     </row>
     <row r="4" spans="1:267" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -3153,17 +3156,17 @@
       </c>
     </row>
     <row r="5" spans="1:267" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
         <v>44675</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3680,17 +3683,17 @@
       </c>
     </row>
     <row r="6" spans="1:267" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>44675</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -4207,17 +4210,17 @@
       </c>
     </row>
     <row r="7" spans="1:267" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>44675</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -4734,17 +4737,17 @@
       </c>
     </row>
     <row r="8" spans="1:267" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>44682</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5261,17 +5264,17 @@
       </c>
     </row>
     <row r="9" spans="1:267" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>44682</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -5788,17 +5791,17 @@
       </c>
     </row>
     <row r="10" spans="1:267" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>44682</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -6315,17 +6318,17 @@
       </c>
     </row>
     <row r="11" spans="1:267" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>44682</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -6842,17 +6845,17 @@
       </c>
     </row>
     <row r="12" spans="1:267" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <v>44682</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -7369,17 +7372,17 @@
       </c>
     </row>
     <row r="13" spans="1:267" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>44682</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -7896,17 +7899,17 @@
       </c>
     </row>
     <row r="14" spans="1:267" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="5">
         <v>44682</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -8423,17 +8426,17 @@
       </c>
     </row>
     <row r="15" spans="1:267" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="5">
         <v>44682</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -8950,17 +8953,17 @@
       </c>
     </row>
     <row r="16" spans="1:267" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="1">
         <v>16</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="5">
         <v>44682</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -9477,17 +9480,17 @@
       </c>
     </row>
     <row r="17" spans="1:177" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
+      <c r="A17" s="2">
         <v>17</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="6">
         <v>44681</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E17" s="2"/>
       <c r="G17" s="3">
@@ -10005,17 +10008,17 @@
       </c>
     </row>
     <row r="18" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="1">
         <v>18</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="5">
         <v>44681</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -10532,17 +10535,17 @@
       </c>
     </row>
     <row r="19" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="B19" s="7">
+      <c r="A19" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B19" s="5">
         <v>44681</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -11059,17 +11062,17 @@
       </c>
     </row>
     <row r="20" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="1">
         <v>21</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="5">
         <v>44681</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -11586,17 +11589,17 @@
       </c>
     </row>
     <row r="21" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21" s="1">
         <v>22</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="5">
         <v>44681</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -12113,17 +12116,17 @@
       </c>
     </row>
     <row r="22" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="1">
         <v>24</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="5">
         <v>44681</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -12640,20 +12643,20 @@
       </c>
     </row>
     <row r="23" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="1">
         <v>25</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="5">
         <v>44335</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G23" s="1" t="e">
         <v>#N/A</v>
@@ -13170,17 +13173,17 @@
       </c>
     </row>
     <row r="24" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="1">
         <v>26</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="5">
         <v>44335</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -13697,17 +13700,17 @@
       </c>
     </row>
     <row r="25" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="1">
         <v>28</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="5">
         <v>44335</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -14224,17 +14227,17 @@
       </c>
     </row>
     <row r="26" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
+      <c r="A26" s="1">
         <v>29</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="5">
         <v>44335</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -14751,17 +14754,17 @@
       </c>
     </row>
     <row r="27" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
+      <c r="A27" s="1">
         <v>30</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="5">
         <v>44335</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -15278,17 +15281,17 @@
       </c>
     </row>
     <row r="28" spans="1:177" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
+      <c r="A28" s="1">
         <v>32</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="5">
         <v>44335</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -15805,20 +15808,20 @@
       </c>
     </row>
     <row r="29" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
+      <c r="A29" s="1">
         <v>33</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="5">
         <v>44701</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G29" s="1" t="e">
         <v>#N/A</v>
@@ -16335,17 +16338,17 @@
       </c>
     </row>
     <row r="30" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
+      <c r="A30" s="1">
         <v>34</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="5">
         <v>44701</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -16862,17 +16865,17 @@
       </c>
     </row>
     <row r="31" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
+      <c r="A31" s="1">
         <v>36</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="5">
         <v>44701</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -17389,17 +17392,17 @@
       </c>
     </row>
     <row r="32" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
+      <c r="A32" s="1">
         <v>37</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="5">
         <v>44701</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
@@ -17916,17 +17919,17 @@
       </c>
     </row>
     <row r="33" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
+      <c r="A33" s="1">
         <v>38</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="5">
         <v>44701</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -18443,17 +18446,17 @@
       </c>
     </row>
     <row r="34" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
+      <c r="A34" s="1">
         <v>40</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="5">
         <v>44701</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -18955,20 +18958,20 @@
       </c>
     </row>
     <row r="35" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
+      <c r="A35" s="1">
         <v>41</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="5">
         <v>44702</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G35" s="1" t="e">
         <v>#N/A</v>
@@ -19475,17 +19478,17 @@
       </c>
     </row>
     <row r="36" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
+      <c r="A36" s="1">
         <v>42</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="5">
         <v>44702</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -19987,17 +19990,17 @@
       </c>
     </row>
     <row r="37" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A37" s="6">
+      <c r="A37" s="1">
         <v>44</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="5">
         <v>44702</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -20499,20 +20502,20 @@
       </c>
     </row>
     <row r="38" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A38" s="6">
+      <c r="A38" s="1">
         <v>45</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="5">
         <v>44702</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G38" s="1" t="e">
         <v>#N/A</v>
@@ -21019,17 +21022,17 @@
       </c>
     </row>
     <row r="39" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A39" s="6">
+      <c r="A39" s="1">
         <v>46</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="5">
         <v>44702</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -21531,17 +21534,17 @@
       </c>
     </row>
     <row r="40" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
+      <c r="A40" s="1">
         <v>48</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="5">
         <v>44702</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -22043,20 +22046,20 @@
       </c>
     </row>
     <row r="41" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A41" s="6">
+      <c r="A41" s="1">
         <v>49</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="5">
         <v>44719</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="E41" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G41" s="1" t="e">
         <v>#N/A</v>
@@ -22563,17 +22566,17 @@
       </c>
     </row>
     <row r="42" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
+      <c r="A42" s="1">
         <v>50</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="5">
         <v>44719</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -23075,17 +23078,17 @@
       </c>
     </row>
     <row r="43" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A43" s="6">
+      <c r="A43" s="1">
         <v>52</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="5">
         <v>44719</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -23587,20 +23590,20 @@
       </c>
     </row>
     <row r="44" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A44" s="6">
+      <c r="A44" s="1">
         <v>53</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="5">
         <v>44719</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G44" s="1" t="e">
         <v>#N/A</v>
@@ -24107,17 +24110,17 @@
       </c>
     </row>
     <row r="45" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A45" s="6">
+      <c r="A45" s="1">
         <v>54</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="5">
         <v>44719</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -24619,17 +24622,17 @@
       </c>
     </row>
     <row r="46" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A46" s="6">
+      <c r="A46" s="1">
         <v>56</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="5">
         <v>44719</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -25131,20 +25134,20 @@
       </c>
     </row>
     <row r="47" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A47" s="6">
+      <c r="A47" s="1">
         <v>57</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="5">
         <v>44724</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G47" s="1" t="e">
         <v>#N/A</v>
@@ -25651,17 +25654,17 @@
       </c>
     </row>
     <row r="48" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A48" s="6">
+      <c r="A48" s="1">
         <v>58</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="5">
         <v>44724</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -26163,17 +26166,17 @@
       </c>
     </row>
     <row r="49" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A49" s="6">
+      <c r="A49" s="1">
         <v>61</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="5">
         <v>44724</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -26675,20 +26678,20 @@
       </c>
     </row>
     <row r="50" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A50" s="6">
+      <c r="A50" s="1">
         <v>62</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="5">
         <v>44724</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G50" s="1" t="e">
         <v>#N/A</v>
@@ -27195,17 +27198,17 @@
       </c>
     </row>
     <row r="51" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A51" s="6">
+      <c r="A51" s="1">
         <v>63</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="5">
         <v>44724</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -27707,17 +27710,17 @@
       </c>
     </row>
     <row r="52" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A52" s="6">
+      <c r="A52" s="1">
         <v>65</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="5">
         <v>44724</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -28219,17 +28222,17 @@
       </c>
     </row>
     <row r="53" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A53" s="6">
+      <c r="A53" s="1">
         <v>66</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="5">
         <v>44720</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -28731,17 +28734,17 @@
       </c>
     </row>
     <row r="54" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A54" s="6">
+      <c r="A54" s="1">
         <v>67</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="5">
         <v>44720</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -29243,17 +29246,17 @@
       </c>
     </row>
     <row r="55" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A55" s="6">
+      <c r="A55" s="1">
         <v>69</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="5">
         <v>44720</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -29755,20 +29758,20 @@
       </c>
     </row>
     <row r="56" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A56" s="6">
+      <c r="A56" s="1">
         <v>70</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="5">
         <v>44720</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G56" s="1" t="e">
         <v>#N/A</v>
@@ -30275,17 +30278,17 @@
       </c>
     </row>
     <row r="57" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A57" s="6">
+      <c r="A57" s="1">
         <v>71</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="5">
         <v>44720</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -30787,17 +30790,17 @@
       </c>
     </row>
     <row r="58" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A58" s="6">
+      <c r="A58" s="1">
         <v>73</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="5">
         <v>44720</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -31299,20 +31302,20 @@
       </c>
     </row>
     <row r="59" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A59" s="6">
+      <c r="A59" s="1">
         <v>74</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="5">
         <v>41101</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="E59" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G59" s="1" t="e">
         <v>#N/A</v>
@@ -31819,17 +31822,17 @@
       </c>
     </row>
     <row r="60" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A60" s="6">
+      <c r="A60" s="1">
         <v>75</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="5">
         <v>41101</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -32331,17 +32334,17 @@
       </c>
     </row>
     <row r="61" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A61" s="6">
+      <c r="A61" s="1">
         <v>77</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="5">
         <v>41101</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -32843,17 +32846,17 @@
       </c>
     </row>
     <row r="62" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A62" s="6">
+      <c r="A62" s="1">
         <v>78</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="5">
         <v>41101</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -33355,17 +33358,17 @@
       </c>
     </row>
     <row r="63" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A63" s="6">
+      <c r="A63" s="1">
         <v>79</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="5">
         <v>41101</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -33867,17 +33870,17 @@
       </c>
     </row>
     <row r="64" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A64" s="6">
+      <c r="A64" s="1">
         <v>81</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="5">
         <v>41101</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -34379,17 +34382,17 @@
       </c>
     </row>
     <row r="65" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A65" s="6">
+      <c r="A65" s="1">
         <v>82</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="5">
         <v>41103</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -34891,17 +34894,17 @@
       </c>
     </row>
     <row r="66" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A66" s="6">
+      <c r="A66" s="1">
         <v>83</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="5">
         <v>41103</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -35403,17 +35406,17 @@
       </c>
     </row>
     <row r="67" spans="1:177" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="6">
+      <c r="A67" s="1">
         <v>86</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="5">
         <v>41103</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -35915,17 +35918,17 @@
       </c>
     </row>
     <row r="68" spans="1:177" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="6">
+      <c r="A68" s="1">
         <v>87</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="5">
         <v>41103</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -36427,17 +36430,17 @@
       </c>
     </row>
     <row r="69" spans="1:177" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="6">
+      <c r="A69" s="1">
         <v>88</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69" s="5">
         <v>41103</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -36939,17 +36942,17 @@
       </c>
     </row>
     <row r="70" spans="1:177" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="6">
+      <c r="A70" s="1">
         <v>90</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="5">
         <v>41103</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -37451,20 +37454,20 @@
       </c>
     </row>
     <row r="71" spans="1:177" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="6">
+      <c r="A71" s="1">
         <v>91</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71" s="5">
         <v>44754</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G71" s="1" t="e">
         <v>#N/A</v>
@@ -37971,17 +37974,17 @@
       </c>
     </row>
     <row r="72" spans="1:177" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="6">
+      <c r="A72" s="1">
         <v>92</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B72" s="5">
         <v>44754</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -38483,17 +38486,17 @@
       </c>
     </row>
     <row r="73" spans="1:177" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="6">
+      <c r="A73" s="1">
         <v>94</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73" s="5">
         <v>44754</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -38995,20 +38998,20 @@
       </c>
     </row>
     <row r="74" spans="1:177" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="6">
+      <c r="A74" s="1">
         <v>95</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B74" s="5">
         <v>44754</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G74" s="1" t="e">
         <v>#N/A</v>
@@ -39515,17 +39518,17 @@
       </c>
     </row>
     <row r="75" spans="1:177" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="6">
+      <c r="A75" s="1">
         <v>96</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B75" s="5">
         <v>44754</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -40027,17 +40030,17 @@
       </c>
     </row>
     <row r="76" spans="1:177" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="6">
+      <c r="A76" s="1">
         <v>98</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B76" s="5">
         <v>44754</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -40539,20 +40542,20 @@
       </c>
     </row>
     <row r="77" spans="1:177" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="6">
+      <c r="A77" s="1">
         <v>99</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="5">
         <v>44789</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="E77" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G77" s="1" t="e">
         <v>#N/A</v>
@@ -41059,17 +41062,17 @@
       </c>
     </row>
     <row r="78" spans="1:177" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="6">
+      <c r="A78" s="1">
         <v>100</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B78" s="5">
         <v>44789</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -41571,17 +41574,17 @@
       </c>
     </row>
     <row r="79" spans="1:177" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="6">
+      <c r="A79" s="1">
         <v>103</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79" s="5">
         <v>44789</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -42083,17 +42086,17 @@
       </c>
     </row>
     <row r="80" spans="1:177" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="6">
+      <c r="A80" s="1">
         <v>104</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80" s="5">
         <v>44789</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -42595,17 +42598,17 @@
       </c>
     </row>
     <row r="81" spans="1:177" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="6">
+      <c r="A81" s="1">
         <v>105</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B81" s="5">
         <v>44789</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -43107,17 +43110,17 @@
       </c>
     </row>
     <row r="82" spans="1:177" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="6">
+      <c r="A82" s="1">
         <v>107</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B82" s="5">
         <v>44789</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -43619,17 +43622,17 @@
       </c>
     </row>
     <row r="83" spans="1:177" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="6">
+      <c r="A83" s="1">
         <v>108</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B83" s="5">
         <v>44787</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -44131,17 +44134,17 @@
       </c>
     </row>
     <row r="84" spans="1:177" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="6">
+      <c r="A84" s="1">
         <v>109</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B84" s="5">
         <v>44787</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -44649,17 +44652,17 @@
       </c>
     </row>
     <row r="85" spans="1:177" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="6">
+      <c r="A85" s="1">
         <v>111</v>
       </c>
-      <c r="B85" s="7">
+      <c r="B85" s="5">
         <v>44787</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -45161,20 +45164,20 @@
       </c>
     </row>
     <row r="86" spans="1:177" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="6">
+      <c r="A86" s="1">
         <v>112</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B86" s="5">
         <v>44787</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G86" s="1" t="e">
         <v>#N/A</v>
@@ -45681,17 +45684,17 @@
       </c>
     </row>
     <row r="87" spans="1:177" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="6">
+      <c r="A87" s="1">
         <v>113</v>
       </c>
-      <c r="B87" s="7">
+      <c r="B87" s="5">
         <v>44787</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -46193,17 +46196,17 @@
       </c>
     </row>
     <row r="88" spans="1:177" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="6">
+      <c r="A88" s="1">
         <v>115</v>
       </c>
-      <c r="B88" s="7">
+      <c r="B88" s="5">
         <v>44787</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -46705,20 +46708,20 @@
       </c>
     </row>
     <row r="89" spans="1:177" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="6">
+      <c r="A89" s="1">
         <v>116</v>
       </c>
-      <c r="B89" s="7">
+      <c r="B89" s="5">
         <v>44787</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G89" s="1" t="e">
         <v>#N/A</v>
@@ -47225,17 +47228,17 @@
       </c>
     </row>
     <row r="90" spans="1:177" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="6">
+      <c r="A90" s="1">
         <v>117</v>
       </c>
-      <c r="B90" s="7">
+      <c r="B90" s="5">
         <v>44787</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -47737,17 +47740,17 @@
       </c>
     </row>
     <row r="91" spans="1:177" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="6">
+      <c r="A91" s="1">
         <v>119</v>
       </c>
-      <c r="B91" s="7">
+      <c r="B91" s="5">
         <v>44787</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -48249,17 +48252,17 @@
       </c>
     </row>
     <row r="92" spans="1:177" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="6">
+      <c r="A92" s="1">
         <v>120</v>
       </c>
-      <c r="B92" s="7">
+      <c r="B92" s="5">
         <v>44787</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -48767,17 +48770,17 @@
       </c>
     </row>
     <row r="93" spans="1:177" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="6">
+      <c r="A93" s="1">
         <v>121</v>
       </c>
-      <c r="B93" s="7">
+      <c r="B93" s="5">
         <v>44787</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -49279,17 +49282,17 @@
       </c>
     </row>
     <row r="94" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A94" s="6">
+      <c r="A94" s="1">
         <v>123</v>
       </c>
-      <c r="B94" s="7">
+      <c r="B94" s="5">
         <v>44787</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -49791,20 +49794,20 @@
       </c>
     </row>
     <row r="95" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A95" s="6">
+      <c r="A95" s="1">
         <v>124</v>
       </c>
-      <c r="B95" s="7">
+      <c r="B95" s="5">
         <v>44808</v>
       </c>
       <c r="C95" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="E95" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G95" s="1" t="e">
         <v>#N/A</v>
@@ -50311,17 +50314,17 @@
       </c>
     </row>
     <row r="96" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A96" s="6">
+      <c r="A96" s="1">
         <v>125</v>
       </c>
-      <c r="B96" s="7">
+      <c r="B96" s="5">
         <v>44808</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -50823,17 +50826,17 @@
       </c>
     </row>
     <row r="97" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A97" s="6">
+      <c r="A97" s="1">
         <v>127</v>
       </c>
-      <c r="B97" s="7">
+      <c r="B97" s="5">
         <v>44808</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -51335,17 +51338,17 @@
       </c>
     </row>
     <row r="98" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A98" s="6">
+      <c r="A98" s="1">
         <v>128</v>
       </c>
-      <c r="B98" s="7">
+      <c r="B98" s="5">
         <v>44808</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -51847,17 +51850,17 @@
       </c>
     </row>
     <row r="99" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A99" s="6">
+      <c r="A99" s="1">
         <v>129</v>
       </c>
-      <c r="B99" s="7">
+      <c r="B99" s="5">
         <v>44808</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -52359,17 +52362,17 @@
       </c>
     </row>
     <row r="100" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A100" s="6">
+      <c r="A100" s="1">
         <v>131</v>
       </c>
-      <c r="B100" s="7">
+      <c r="B100" s="5">
         <v>44808</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -52871,17 +52874,17 @@
       </c>
     </row>
     <row r="101" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A101" s="6">
+      <c r="A101" s="1">
         <v>132</v>
       </c>
-      <c r="B101" s="7">
+      <c r="B101" s="5">
         <v>44808</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -53383,17 +53386,17 @@
       </c>
     </row>
     <row r="102" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A102" s="6">
+      <c r="A102" s="1">
         <v>133</v>
       </c>
-      <c r="B102" s="7">
+      <c r="B102" s="5">
         <v>44807</v>
       </c>
       <c r="C102" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -53895,17 +53898,17 @@
       </c>
     </row>
     <row r="103" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A103" s="6">
+      <c r="A103" s="1">
         <v>135</v>
       </c>
-      <c r="B103" s="7">
+      <c r="B103" s="5">
         <v>44807</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -54407,20 +54410,20 @@
       </c>
     </row>
     <row r="104" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A104" s="6">
+      <c r="A104" s="1">
         <v>136</v>
       </c>
-      <c r="B104" s="7">
+      <c r="B104" s="5">
         <v>44807</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G104" s="1" t="e">
         <v>#N/A</v>
@@ -54927,17 +54930,17 @@
       </c>
     </row>
     <row r="105" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A105" s="6">
+      <c r="A105" s="1">
         <v>137</v>
       </c>
-      <c r="B105" s="7">
+      <c r="B105" s="5">
         <v>44807</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -55439,17 +55442,17 @@
       </c>
     </row>
     <row r="106" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A106" s="6">
+      <c r="A106" s="1">
         <v>139</v>
       </c>
-      <c r="B106" s="7">
+      <c r="B106" s="5">
         <v>44807</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -55951,20 +55954,20 @@
       </c>
     </row>
     <row r="107" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A107" s="6">
+      <c r="A107" s="1">
         <v>140</v>
       </c>
-      <c r="B107" s="7">
+      <c r="B107" s="5">
         <v>44807</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G107" s="1" t="e">
         <v>#N/A</v>
@@ -56471,17 +56474,17 @@
       </c>
     </row>
     <row r="108" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A108" s="6">
+      <c r="A108" s="1">
         <v>141</v>
       </c>
-      <c r="B108" s="7">
+      <c r="B108" s="5">
         <v>44807</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -56983,17 +56986,17 @@
       </c>
     </row>
     <row r="109" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A109" s="6">
+      <c r="A109" s="1">
         <v>143</v>
       </c>
-      <c r="B109" s="7">
+      <c r="B109" s="5">
         <v>44807</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -57495,20 +57498,20 @@
       </c>
     </row>
     <row r="110" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A110" s="6">
+      <c r="A110" s="1">
         <v>145</v>
       </c>
-      <c r="B110" s="7">
+      <c r="B110" s="5">
         <v>44807</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G110" s="1" t="e">
         <v>#N/A</v>
@@ -58015,17 +58018,17 @@
       </c>
     </row>
     <row r="111" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A111" s="6">
+      <c r="A111" s="1">
         <v>146</v>
       </c>
-      <c r="B111" s="7">
+      <c r="B111" s="5">
         <v>44807</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -58527,17 +58530,17 @@
       </c>
     </row>
     <row r="112" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A112" s="6">
+      <c r="A112" s="1">
         <v>148</v>
       </c>
-      <c r="B112" s="7">
+      <c r="B112" s="5">
         <v>44807</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -59039,20 +59042,20 @@
       </c>
     </row>
     <row r="113" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A113" s="6">
+      <c r="A113" s="1">
         <v>149</v>
       </c>
-      <c r="B113" s="7">
+      <c r="B113" s="5">
         <v>44832</v>
       </c>
       <c r="C113" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="E113" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G113" s="1" t="e">
         <v>#N/A</v>
@@ -59559,17 +59562,17 @@
       </c>
     </row>
     <row r="114" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A114" s="6">
+      <c r="A114" s="1">
         <v>150</v>
       </c>
-      <c r="B114" s="7">
+      <c r="B114" s="5">
         <v>44832</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -60071,17 +60074,17 @@
       </c>
     </row>
     <row r="115" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A115" s="6">
+      <c r="A115" s="1">
         <v>152</v>
       </c>
-      <c r="B115" s="7">
+      <c r="B115" s="5">
         <v>44832</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -60583,20 +60586,20 @@
       </c>
     </row>
     <row r="116" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A116" s="6">
+      <c r="A116" s="1">
         <v>153</v>
       </c>
-      <c r="B116" s="7">
+      <c r="B116" s="5">
         <v>44832</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G116" s="1" t="e">
         <v>#N/A</v>
@@ -61103,17 +61106,17 @@
       </c>
     </row>
     <row r="117" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A117" s="6">
+      <c r="A117" s="1">
         <v>154</v>
       </c>
-      <c r="B117" s="7">
+      <c r="B117" s="5">
         <v>44832</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -61615,17 +61618,17 @@
       </c>
     </row>
     <row r="118" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A118" s="6">
+      <c r="A118" s="1">
         <v>156</v>
       </c>
-      <c r="B118" s="7">
+      <c r="B118" s="5">
         <v>44832</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -62127,20 +62130,20 @@
       </c>
     </row>
     <row r="119" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A119" s="6">
+      <c r="A119" s="1">
         <v>157</v>
       </c>
-      <c r="B119" s="7">
+      <c r="B119" s="5">
         <v>44831</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G119" s="1" t="e">
         <v>#N/A</v>
@@ -62647,17 +62650,17 @@
       </c>
     </row>
     <row r="120" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A120" s="6">
+      <c r="A120" s="1">
         <v>158</v>
       </c>
-      <c r="B120" s="7">
+      <c r="B120" s="5">
         <v>44831</v>
       </c>
       <c r="C120" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -63159,17 +63162,17 @@
       </c>
     </row>
     <row r="121" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A121" s="6">
+      <c r="A121" s="1">
         <v>160</v>
       </c>
-      <c r="B121" s="7">
+      <c r="B121" s="5">
         <v>44831</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -63671,20 +63674,20 @@
       </c>
     </row>
     <row r="122" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A122" s="6">
+      <c r="A122" s="1">
         <v>161</v>
       </c>
-      <c r="B122" s="7">
+      <c r="B122" s="5">
         <v>44831</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G122" s="1" t="e">
         <v>#N/A</v>
@@ -64191,17 +64194,17 @@
       </c>
     </row>
     <row r="123" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A123" s="6">
+      <c r="A123" s="1">
         <v>162</v>
       </c>
-      <c r="B123" s="7">
+      <c r="B123" s="5">
         <v>44831</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -64703,17 +64706,17 @@
       </c>
     </row>
     <row r="124" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A124" s="6">
+      <c r="A124" s="1">
         <v>164</v>
       </c>
-      <c r="B124" s="7">
+      <c r="B124" s="5">
         <v>44831</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -65215,20 +65218,20 @@
       </c>
     </row>
     <row r="125" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A125" s="6">
+      <c r="A125" s="1">
         <v>165</v>
       </c>
-      <c r="B125" s="7">
+      <c r="B125" s="5">
         <v>44831</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G125" s="1" t="e">
         <v>#N/A</v>
@@ -65735,23 +65738,23 @@
       </c>
     </row>
     <row r="126" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A126" s="6">
+      <c r="A126" s="1">
         <v>166</v>
       </c>
-      <c r="B126" s="7">
+      <c r="B126" s="5">
         <v>44831</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G126">
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -66247,17 +66250,17 @@
       </c>
     </row>
     <row r="127" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A127" s="6">
+      <c r="A127" s="1">
         <v>168</v>
       </c>
-      <c r="B127" s="7">
+      <c r="B127" s="5">
         <v>44831</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -66759,20 +66762,20 @@
       </c>
     </row>
     <row r="128" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A128" s="6">
+      <c r="A128" s="1">
         <v>169</v>
       </c>
-      <c r="B128" s="7">
+      <c r="B128" s="5">
         <v>44831</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G128" s="1" t="e">
         <v>#N/A</v>
@@ -67279,17 +67282,17 @@
       </c>
     </row>
     <row r="129" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A129" s="6">
+      <c r="A129" s="1">
         <v>170</v>
       </c>
-      <c r="B129" s="7">
+      <c r="B129" s="5">
         <v>44831</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -67791,17 +67794,17 @@
       </c>
     </row>
     <row r="130" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A130" s="6">
+      <c r="A130" s="1">
         <v>172</v>
       </c>
-      <c r="B130" s="7">
+      <c r="B130" s="5">
         <v>44831</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -68303,20 +68306,20 @@
       </c>
     </row>
     <row r="131" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A131" s="6">
+      <c r="A131" s="1">
         <v>173</v>
       </c>
-      <c r="B131" s="7">
+      <c r="B131" s="5">
         <v>44877</v>
       </c>
       <c r="C131" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D131" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="E131" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G131" s="1" t="e">
         <v>#N/A</v>
@@ -68823,17 +68826,17 @@
       </c>
     </row>
     <row r="132" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A132" s="6">
+      <c r="A132" s="1">
         <v>174</v>
       </c>
-      <c r="B132" s="7">
+      <c r="B132" s="5">
         <v>44877</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -69335,17 +69338,17 @@
       </c>
     </row>
     <row r="133" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A133" s="6">
+      <c r="A133" s="1">
         <v>176</v>
       </c>
-      <c r="B133" s="7">
+      <c r="B133" s="5">
         <v>44877</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -69847,20 +69850,20 @@
       </c>
     </row>
     <row r="134" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A134" s="6">
+      <c r="A134" s="1">
         <v>177</v>
       </c>
-      <c r="B134" s="7">
+      <c r="B134" s="5">
         <v>44877</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G134" s="1" t="e">
         <v>#N/A</v>
@@ -70367,17 +70370,17 @@
       </c>
     </row>
     <row r="135" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A135" s="6">
+      <c r="A135" s="1">
         <v>178</v>
       </c>
-      <c r="B135" s="7">
+      <c r="B135" s="5">
         <v>44877</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -70879,17 +70882,17 @@
       </c>
     </row>
     <row r="136" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A136" s="6">
+      <c r="A136" s="1">
         <v>180</v>
       </c>
-      <c r="B136" s="7">
+      <c r="B136" s="5">
         <v>44877</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -71391,20 +71394,20 @@
       </c>
     </row>
     <row r="137" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A137" s="6">
+      <c r="A137" s="1">
         <v>181</v>
       </c>
-      <c r="B137" s="7">
+      <c r="B137" s="5">
         <v>44878</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G137" s="1" t="e">
         <v>#N/A</v>
@@ -71911,17 +71914,17 @@
       </c>
     </row>
     <row r="138" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A138" s="6">
+      <c r="A138" s="1">
         <v>182</v>
       </c>
-      <c r="B138" s="7">
+      <c r="B138" s="5">
         <v>44878</v>
       </c>
       <c r="C138" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -72423,17 +72426,17 @@
       </c>
     </row>
     <row r="139" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A139" s="6">
+      <c r="A139" s="1">
         <v>184</v>
       </c>
-      <c r="B139" s="7">
+      <c r="B139" s="5">
         <v>44878</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -72935,20 +72938,20 @@
       </c>
     </row>
     <row r="140" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A140" s="6">
+      <c r="A140" s="1">
         <v>185</v>
       </c>
-      <c r="B140" s="7">
+      <c r="B140" s="5">
         <v>44878</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G140" s="1" t="e">
         <v>#N/A</v>
@@ -73455,17 +73458,17 @@
       </c>
     </row>
     <row r="141" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A141" s="6">
+      <c r="A141" s="1">
         <v>186</v>
       </c>
-      <c r="B141" s="7">
+      <c r="B141" s="5">
         <v>44878</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -73967,17 +73970,17 @@
       </c>
     </row>
     <row r="142" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A142" s="6">
+      <c r="A142" s="1">
         <v>188</v>
       </c>
-      <c r="B142" s="7">
+      <c r="B142" s="5">
         <v>44878</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -74479,20 +74482,20 @@
       </c>
     </row>
     <row r="143" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A143" s="6">
+      <c r="A143" s="1">
         <v>189</v>
       </c>
-      <c r="B143" s="7">
+      <c r="B143" s="5">
         <v>44878</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G143" s="1" t="e">
         <v>#N/A</v>
@@ -74999,17 +75002,17 @@
       </c>
     </row>
     <row r="144" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A144" s="6">
+      <c r="A144" s="1">
         <v>190</v>
       </c>
-      <c r="B144" s="7">
+      <c r="B144" s="5">
         <v>44878</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -75511,17 +75514,17 @@
       </c>
     </row>
     <row r="145" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A145" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B145" s="7">
+      <c r="A145" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B145" s="5">
         <v>44878</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -76023,20 +76026,20 @@
       </c>
     </row>
     <row r="146" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A146" s="6">
+      <c r="A146" s="1">
         <v>193</v>
       </c>
-      <c r="B146" s="7">
+      <c r="B146" s="5">
         <v>44878</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G146" s="1" t="e">
         <v>#N/A</v>
@@ -76543,17 +76546,17 @@
       </c>
     </row>
     <row r="147" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A147" s="6">
+      <c r="A147" s="1">
         <v>194</v>
       </c>
-      <c r="B147" s="7">
+      <c r="B147" s="5">
         <v>44878</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -77055,17 +77058,17 @@
       </c>
     </row>
     <row r="148" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A148" s="6">
+      <c r="A148" s="1">
         <v>196</v>
       </c>
-      <c r="B148" s="7">
+      <c r="B148" s="5">
         <v>44878</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G148">
         <v>0</v>
